--- a/GATEWAY/A1#111#MEDICALCLOUDSRLX4/medicalcloud/visitasmart/1.0/report-checklist_V8.2.5_Medicalcloud_New.xlsx
+++ b/GATEWAY/A1#111#MEDICALCLOUDSRLX4/medicalcloud/visitasmart/1.0/report-checklist_V8.2.5_Medicalcloud_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosar\Desktop\giovanni\medical cloud\FSE 2.0\test uff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{58B46503-173A-45DB-A54C-A88570DB2544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1927B52-72B1-42AE-AFFF-26D6726D2295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C39DE83B-1739-445D-8950-88F749A314C1}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Summary!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">TestCases!$A$9:$W$192</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -5062,9 +5062,6 @@
     <t>Errore semantico: grado di parentela non specificato nell’anamnesi familiare.</t>
   </si>
   <si>
-    <t>l sistema rileva in fase di validazione l’assenza del codice che specifica il grado di parentela. L’errore è visibile all’utente, che deve completare l’anamnesi familiare con l’informazione mancante e procedere con un nuovo invio.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
   </si>
   <si>
@@ -7197,15 +7194,6 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.68857c4592^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-05-12T15:01:48Z</t>
-  </si>
-  <si>
-    <t>83098c8f2d7ce79d18cafec0018bbf2a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.ec1409d632^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-05-12T15:04:47Z</t>
   </si>
   <si>
@@ -7305,24 +7293,6 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.7970ba72c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-05-12T15:35:32Z</t>
-  </si>
-  <si>
-    <t>461fbcf20db9976f5f11281e34ae8120</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.3fc21b8fa9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-12T15:37:33Z</t>
-  </si>
-  <si>
-    <t>cfdf528fcf711447da9f755e94c832d3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.dfbcb571a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>3e53ebb03d7ba9049821d154263b52ea</t>
   </si>
   <si>
@@ -7339,6 +7309,36 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.ea9aa7f35d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T08:08:13Z</t>
+  </si>
+  <si>
+    <t>f3506d9ea1108e167e237154564d9c6a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.88bd80541e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T09:01:38Z</t>
+  </si>
+  <si>
+    <t>f70496bf46c0e1477b8007b00a7f383b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.e2f658e4c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T09:21:00Z</t>
+  </si>
+  <si>
+    <t>f0b94415ce7f7ef97eb928b111f309c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.de4bd43262^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il sistema rileva in fase di validazione l’assenza del codice che specifica il grado di parentela. L’errore è visibile all’utente, che deve completare l’anamnesi familiare con l’informazione mancante e procedere con un nuovo invio.</t>
   </si>
 </sst>
 </file>
@@ -7605,14 +7605,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7698,21 +7698,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7724,6 +7712,17 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -8141,18 +8140,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B67D4E-0B4A-4E50-B037-BB0A86AE76A7}">
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="121.19921875" style="2" customWidth="1"/>
     <col min="2" max="26" width="8.19921875" style="2" customWidth="1"/>
     <col min="27" max="1024" width="13.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.4">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8182,15 +8181,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.4">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.4">
+    <row r="8" spans="1:1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:1" ht="14.4">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8200,15 +8199,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.4">
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.4">
+    <row r="12" spans="1:1">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:1" ht="14.4">
+    <row r="13" spans="1:1">
       <c r="A13" s="3"/>
     </row>
   </sheetData>
@@ -8220,7 +8219,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A8F508-A246-40BF-84E3-B3D18D2FEB35}">
-  <dimension ref="A1:XFD996"/>
+  <dimension ref="A1:AMJ996"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9289,10 +9288,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE1845C-3E9D-4496-B772-E13496BB4925}">
-  <dimension ref="A1:XFD755"/>
+  <dimension ref="A1:AMJ755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" workbookViewId="0">
+      <selection activeCell="S129" sqref="S129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -9336,12 +9335,12 @@
       <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -9362,14 +9361,14 @@
       <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="45"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -9390,12 +9389,12 @@
       <c r="W3" s="13"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="6"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -9417,12 +9416,12 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="45"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -9443,8 +9442,8 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="15"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -9778,16 +9777,16 @@
         <v>61</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F15" s="32">
         <v>45789</v>
       </c>
       <c r="G15" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="H15" s="33" t="s">
         <v>462</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>463</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>62</v>
@@ -10100,16 +10099,16 @@
         <v>78</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F23" s="32">
         <v>45789</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>62</v>
@@ -13681,13 +13680,13 @@
         <v>45789</v>
       </c>
       <c r="G118" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="H118" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="H118" s="33" t="s">
+      <c r="I118" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="J118" s="27" t="s">
         <v>63</v>
@@ -13742,13 +13741,13 @@
         <v>45789</v>
       </c>
       <c r="G119" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="H119" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="H119" s="33" t="s">
+      <c r="I119" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="J119" s="27" t="s">
         <v>63</v>
@@ -13803,13 +13802,13 @@
         <v>45789</v>
       </c>
       <c r="G120" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="H120" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="H120" s="33" t="s">
+      <c r="I120" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="J120" s="27" t="s">
         <v>63</v>
@@ -13864,13 +13863,13 @@
         <v>45789</v>
       </c>
       <c r="G121" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="H121" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="H121" s="33" t="s">
+      <c r="I121" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="J121" s="27" t="s">
         <v>63</v>
@@ -13922,16 +13921,16 @@
         <v>275</v>
       </c>
       <c r="F122" s="32">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="J122" s="27" t="s">
         <v>63</v>
@@ -13986,13 +13985,13 @@
         <v>45789</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H123" s="33" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J123" s="27" t="s">
         <v>63</v>
@@ -14047,13 +14046,13 @@
         <v>45789</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H124" s="33" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J124" s="27" t="s">
         <v>63</v>
@@ -14108,13 +14107,13 @@
         <v>45789</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H125" s="33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J125" s="27" t="s">
         <v>63</v>
@@ -14169,13 +14168,13 @@
         <v>45789</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H126" s="33" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J126" s="27" t="s">
         <v>63</v>
@@ -14230,13 +14229,13 @@
         <v>45789</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J127" s="27" t="s">
         <v>63</v>
@@ -14291,13 +14290,13 @@
         <v>45789</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J128" s="27" t="s">
         <v>63</v>
@@ -14352,13 +14351,13 @@
         <v>45789</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J129" s="27" t="s">
         <v>63</v>
@@ -14383,8 +14382,8 @@
       <c r="R129" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="S129" s="36" t="s">
-        <v>294</v>
+      <c r="S129" s="34" t="s">
+        <v>525</v>
       </c>
       <c r="T129" s="27"/>
       <c r="U129" s="28"/>
@@ -14404,22 +14403,22 @@
         <v>60</v>
       </c>
       <c r="D130" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E130" s="24" t="s">
         <v>295</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>296</v>
       </c>
       <c r="F130" s="32">
         <v>45789</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J130" s="27" t="s">
         <v>63</v>
@@ -14465,22 +14464,22 @@
         <v>60</v>
       </c>
       <c r="D131" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E131" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>298</v>
       </c>
       <c r="F131" s="32">
         <v>45789</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J131" s="27" t="s">
         <v>63</v>
@@ -14526,22 +14525,22 @@
         <v>60</v>
       </c>
       <c r="D132" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E132" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>300</v>
       </c>
       <c r="F132" s="32">
         <v>45789</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J132" s="27" t="s">
         <v>63</v>
@@ -14587,22 +14586,22 @@
         <v>60</v>
       </c>
       <c r="D133" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E133" s="24" t="s">
         <v>301</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>302</v>
       </c>
       <c r="F133" s="32">
         <v>45789</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H133" s="33" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J133" s="27" t="s">
         <v>63</v>
@@ -14648,10 +14647,10 @@
         <v>56</v>
       </c>
       <c r="D134" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E134" s="24" t="s">
         <v>303</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>304</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="35"/>
@@ -14685,10 +14684,10 @@
         <v>56</v>
       </c>
       <c r="D135" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E135" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>306</v>
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="26"/>
@@ -14722,10 +14721,10 @@
         <v>56</v>
       </c>
       <c r="D136" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E136" s="24" t="s">
         <v>307</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>308</v>
       </c>
       <c r="F136" s="32"/>
       <c r="G136" s="26"/>
@@ -14759,10 +14758,10 @@
         <v>56</v>
       </c>
       <c r="D137" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E137" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="F137" s="32"/>
       <c r="G137" s="26"/>
@@ -14796,10 +14795,10 @@
         <v>56</v>
       </c>
       <c r="D138" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E138" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>312</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="26"/>
@@ -14833,10 +14832,10 @@
         <v>56</v>
       </c>
       <c r="D139" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E139" s="24" t="s">
         <v>313</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>314</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="26"/>
@@ -14870,10 +14869,10 @@
         <v>56</v>
       </c>
       <c r="D140" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="E140" s="24" t="s">
         <v>315</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>316</v>
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="26"/>
@@ -14907,10 +14906,10 @@
         <v>56</v>
       </c>
       <c r="D141" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E141" s="24" t="s">
         <v>317</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>318</v>
       </c>
       <c r="F141" s="32"/>
       <c r="G141" s="26"/>
@@ -14944,10 +14943,10 @@
         <v>56</v>
       </c>
       <c r="D142" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="E142" s="24" t="s">
         <v>319</v>
-      </c>
-      <c r="E142" s="24" t="s">
-        <v>320</v>
       </c>
       <c r="F142" s="32"/>
       <c r="G142" s="26"/>
@@ -14981,10 +14980,10 @@
         <v>56</v>
       </c>
       <c r="D143" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E143" s="24" t="s">
         <v>321</v>
-      </c>
-      <c r="E143" s="24" t="s">
-        <v>322</v>
       </c>
       <c r="F143" s="32"/>
       <c r="G143" s="26"/>
@@ -15018,10 +15017,10 @@
         <v>56</v>
       </c>
       <c r="D144" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="E144" s="24" t="s">
         <v>323</v>
-      </c>
-      <c r="E144" s="24" t="s">
-        <v>324</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="26"/>
@@ -15055,10 +15054,10 @@
         <v>56</v>
       </c>
       <c r="D145" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E145" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>326</v>
       </c>
       <c r="F145" s="32"/>
       <c r="G145" s="26"/>
@@ -15092,10 +15091,10 @@
         <v>56</v>
       </c>
       <c r="D146" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="E146" s="24" t="s">
         <v>327</v>
-      </c>
-      <c r="E146" s="24" t="s">
-        <v>328</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="26"/>
@@ -15129,10 +15128,10 @@
         <v>56</v>
       </c>
       <c r="D147" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="E147" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="26"/>
@@ -15166,10 +15165,10 @@
         <v>56</v>
       </c>
       <c r="D148" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E148" s="24" t="s">
         <v>331</v>
-      </c>
-      <c r="E148" s="24" t="s">
-        <v>332</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="26"/>
@@ -15203,10 +15202,10 @@
         <v>47</v>
       </c>
       <c r="D149" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E149" s="24" t="s">
         <v>333</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>334</v>
       </c>
       <c r="F149" s="32"/>
       <c r="G149" s="26"/>
@@ -15240,10 +15239,10 @@
         <v>47</v>
       </c>
       <c r="D150" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E150" s="24" t="s">
         <v>335</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>336</v>
       </c>
       <c r="F150" s="32"/>
       <c r="G150" s="26"/>
@@ -15274,13 +15273,13 @@
         <v>46</v>
       </c>
       <c r="C151" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D151" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="E151" s="24" t="s">
         <v>338</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>339</v>
       </c>
       <c r="F151" s="32"/>
       <c r="G151" s="26"/>
@@ -15311,13 +15310,13 @@
         <v>46</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D152" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E152" s="24" t="s">
         <v>340</v>
-      </c>
-      <c r="E152" s="24" t="s">
-        <v>341</v>
       </c>
       <c r="F152" s="32"/>
       <c r="G152" s="26"/>
@@ -15348,13 +15347,13 @@
         <v>46</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D153" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E153" s="24" t="s">
         <v>342</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>343</v>
       </c>
       <c r="F153" s="32"/>
       <c r="G153" s="26"/>
@@ -15385,13 +15384,13 @@
         <v>46</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D154" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E154" s="30" t="s">
         <v>344</v>
-      </c>
-      <c r="E154" s="30" t="s">
-        <v>345</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="26"/>
@@ -15422,13 +15421,13 @@
         <v>46</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D155" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E155" s="30" t="s">
         <v>346</v>
-      </c>
-      <c r="E155" s="30" t="s">
-        <v>347</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="26"/>
@@ -15459,13 +15458,13 @@
         <v>46</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D156" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E156" s="24" t="s">
         <v>348</v>
-      </c>
-      <c r="E156" s="24" t="s">
-        <v>349</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="26"/>
@@ -15496,13 +15495,13 @@
         <v>46</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D157" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E157" s="24" t="s">
         <v>350</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>351</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="26"/>
@@ -15533,13 +15532,13 @@
         <v>46</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D158" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E158" s="24" t="s">
         <v>352</v>
-      </c>
-      <c r="E158" s="24" t="s">
-        <v>353</v>
       </c>
       <c r="F158" s="32"/>
       <c r="G158" s="26"/>
@@ -15570,13 +15569,13 @@
         <v>46</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D159" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E159" s="24" t="s">
         <v>354</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>355</v>
       </c>
       <c r="F159" s="32"/>
       <c r="G159" s="26"/>
@@ -15607,13 +15606,13 @@
         <v>46</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D160" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E160" s="24" t="s">
         <v>356</v>
-      </c>
-      <c r="E160" s="24" t="s">
-        <v>357</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="26"/>
@@ -15644,13 +15643,13 @@
         <v>46</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D161" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" s="24" t="s">
         <v>358</v>
-      </c>
-      <c r="E161" s="24" t="s">
-        <v>359</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="26"/>
@@ -15681,13 +15680,13 @@
         <v>46</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D162" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E162" s="24" t="s">
         <v>360</v>
-      </c>
-      <c r="E162" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="F162" s="32"/>
       <c r="G162" s="26"/>
@@ -15718,13 +15717,13 @@
         <v>46</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D163" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" s="24" t="s">
         <v>362</v>
-      </c>
-      <c r="E163" s="24" t="s">
-        <v>363</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="26"/>
@@ -15755,13 +15754,13 @@
         <v>46</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D164" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E164" s="24" t="s">
         <v>364</v>
-      </c>
-      <c r="E164" s="24" t="s">
-        <v>365</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="26"/>
@@ -15792,13 +15791,13 @@
         <v>46</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D165" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" s="24" t="s">
         <v>366</v>
-      </c>
-      <c r="E165" s="24" t="s">
-        <v>367</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="26"/>
@@ -15829,13 +15828,13 @@
         <v>46</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D166" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E166" s="24" t="s">
         <v>368</v>
-      </c>
-      <c r="E166" s="24" t="s">
-        <v>369</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="26"/>
@@ -15869,10 +15868,10 @@
         <v>56</v>
       </c>
       <c r="D167" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E167" s="24" t="s">
         <v>370</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>371</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="26"/>
@@ -15906,10 +15905,10 @@
         <v>56</v>
       </c>
       <c r="D168" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E168" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="E168" s="24" t="s">
-        <v>373</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="25"/>
@@ -15943,22 +15942,22 @@
         <v>60</v>
       </c>
       <c r="D169" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E169" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="E169" s="24" t="s">
-        <v>375</v>
-      </c>
       <c r="F169" s="32">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H169" s="33" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="J169" s="27" t="s">
         <v>63</v>
@@ -15990,22 +15989,22 @@
         <v>60</v>
       </c>
       <c r="D170" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E170" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="E170" s="24" t="s">
-        <v>377</v>
-      </c>
       <c r="F170" s="32">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="J170" s="27" t="s">
         <v>63</v>
@@ -16037,10 +16036,10 @@
         <v>54</v>
       </c>
       <c r="D171" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="E171" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="E171" s="24" t="s">
-        <v>379</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="35"/>
@@ -16074,10 +16073,10 @@
         <v>54</v>
       </c>
       <c r="D172" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E172" s="24" t="s">
         <v>380</v>
-      </c>
-      <c r="E172" s="24" t="s">
-        <v>381</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="26"/>
@@ -16111,10 +16110,10 @@
         <v>47</v>
       </c>
       <c r="D173" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="E173" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>383</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="26"/>
@@ -16148,10 +16147,10 @@
         <v>71</v>
       </c>
       <c r="D174" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E174" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="E174" s="24" t="s">
-        <v>385</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="26"/>
@@ -16185,10 +16184,10 @@
         <v>71</v>
       </c>
       <c r="D175" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E175" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="E175" s="24" t="s">
-        <v>387</v>
       </c>
       <c r="F175" s="32"/>
       <c r="G175" s="26"/>
@@ -16222,10 +16221,10 @@
         <v>69</v>
       </c>
       <c r="D176" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E176" s="24" t="s">
         <v>388</v>
-      </c>
-      <c r="E176" s="24" t="s">
-        <v>389</v>
       </c>
       <c r="F176" s="32"/>
       <c r="G176" s="26"/>
@@ -16259,10 +16258,10 @@
         <v>69</v>
       </c>
       <c r="D177" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="E177" s="24" t="s">
         <v>390</v>
-      </c>
-      <c r="E177" s="24" t="s">
-        <v>391</v>
       </c>
       <c r="F177" s="32"/>
       <c r="G177" s="26"/>
@@ -16296,10 +16295,10 @@
         <v>67</v>
       </c>
       <c r="D178" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E178" s="24" t="s">
         <v>392</v>
-      </c>
-      <c r="E178" s="24" t="s">
-        <v>393</v>
       </c>
       <c r="F178" s="32"/>
       <c r="G178" s="26"/>
@@ -16333,10 +16332,10 @@
         <v>67</v>
       </c>
       <c r="D179" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E179" s="24" t="s">
         <v>394</v>
-      </c>
-      <c r="E179" s="24" t="s">
-        <v>395</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="26"/>
@@ -16367,13 +16366,13 @@
         <v>46</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D180" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E180" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="E180" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="F180" s="32"/>
       <c r="G180" s="25"/>
@@ -16407,22 +16406,22 @@
         <v>60</v>
       </c>
       <c r="D181" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E181" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="E181" s="24" t="s">
-        <v>399</v>
       </c>
       <c r="F181" s="32">
         <v>45789</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J181" s="27" t="s">
         <v>63</v>
@@ -16468,14 +16467,14 @@
         <v>58</v>
       </c>
       <c r="D182" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="E182" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="E182" s="24" t="s">
-        <v>401</v>
-      </c>
       <c r="F182" s="32"/>
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="36"/>
       <c r="I182" s="23"/>
       <c r="J182" s="27"/>
       <c r="K182" s="27"/>
@@ -16505,10 +16504,10 @@
         <v>71</v>
       </c>
       <c r="D183" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E183" s="24" t="s">
         <v>402</v>
-      </c>
-      <c r="E183" s="24" t="s">
-        <v>403</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="23"/>
@@ -16542,10 +16541,10 @@
         <v>67</v>
       </c>
       <c r="D184" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E184" s="24" t="s">
         <v>404</v>
-      </c>
-      <c r="E184" s="24" t="s">
-        <v>405</v>
       </c>
       <c r="F184" s="32"/>
       <c r="G184" s="23"/>
@@ -16579,10 +16578,10 @@
         <v>69</v>
       </c>
       <c r="D185" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E185" s="24" t="s">
         <v>406</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>407</v>
       </c>
       <c r="F185" s="32"/>
       <c r="G185" s="23"/>
@@ -16616,10 +16615,10 @@
         <v>47</v>
       </c>
       <c r="D186" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="E186" s="24" t="s">
         <v>408</v>
-      </c>
-      <c r="E186" s="24" t="s">
-        <v>409</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="23"/>
@@ -16653,10 +16652,10 @@
         <v>54</v>
       </c>
       <c r="D187" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E187" s="24" t="s">
         <v>410</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>411</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="21"/>
@@ -16690,22 +16689,22 @@
         <v>60</v>
       </c>
       <c r="D188" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E188" s="24" t="s">
         <v>412</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>413</v>
       </c>
       <c r="F188" s="32">
         <v>45789</v>
       </c>
       <c r="G188" s="33" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H188" s="33" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="J188" s="27" t="s">
         <v>63</v>
@@ -16751,14 +16750,14 @@
         <v>56</v>
       </c>
       <c r="D189" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E189" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="E189" s="24" t="s">
-        <v>415</v>
-      </c>
       <c r="F189" s="23"/>
-      <c r="G189" s="37"/>
-      <c r="H189" s="37"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="36"/>
       <c r="I189" s="23"/>
       <c r="J189" s="27"/>
       <c r="K189" s="27"/>
@@ -16785,13 +16784,13 @@
         <v>46</v>
       </c>
       <c r="C190" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D190" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E190" s="24" t="s">
         <v>416</v>
-      </c>
-      <c r="E190" s="24" t="s">
-        <v>417</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="23"/>
@@ -16825,10 +16824,10 @@
         <v>58</v>
       </c>
       <c r="D191" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E191" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="E191" s="24" t="s">
-        <v>419</v>
       </c>
       <c r="F191" s="26"/>
       <c r="G191" s="26"/>
@@ -16862,10 +16861,10 @@
         <v>58</v>
       </c>
       <c r="D192" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E192" s="24" t="s">
         <v>420</v>
-      </c>
-      <c r="E192" s="24" t="s">
-        <v>421</v>
       </c>
       <c r="F192" s="26"/>
       <c r="G192" s="26"/>
@@ -20986,53 +20985,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62B8AD7-3553-4635-874D-43E3F83781C0}">
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1024" width="8.09765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.4">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.4">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.4">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.4">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.4">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.4">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.4">
-      <c r="A8" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -21044,7 +21043,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA96035-251C-47CE-ABFD-C2E7A8E0D588}">
-  <dimension ref="A1:XFD960"/>
+  <dimension ref="A1:AMJ960"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21062,25 +21061,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="38" t="s">
         <v>433</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
@@ -21088,13 +21087,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="39" t="s">
         <v>436</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
@@ -21102,13 +21101,13 @@
         <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>438</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
@@ -21116,13 +21115,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C4" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>440</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -21130,13 +21129,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>442</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
@@ -21144,13 +21143,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C6" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>444</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.4">
@@ -21158,13 +21157,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>446</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4">
@@ -21172,13 +21171,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>448</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4">
@@ -21186,41 +21185,41 @@
         <v>56</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>450</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42">
       <c r="A10" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="D10" s="39" t="s">
         <v>453</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C11" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>455</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -22188,7 +22187,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBD6CDD-A7CA-4539-8770-61E04007F4D8}">
-  <dimension ref="A1:XFD1000"/>
+  <dimension ref="A1:AMJ1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22210,7 +22209,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>63</v>
@@ -22218,7 +22217,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>65</v>

--- a/GATEWAY/A1#111#MEDICALCLOUDSRLX4/medicalcloud/visitasmart/1.0/report-checklist_V8.2.5_Medicalcloud_New.xlsx
+++ b/GATEWAY/A1#111#MEDICALCLOUDSRLX4/medicalcloud/visitasmart/1.0/report-checklist_V8.2.5_Medicalcloud_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosar\Desktop\giovanni\medical cloud\FSE 2.0\test uff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1927B52-72B1-42AE-AFFF-26D6726D2295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4BF262-F02A-4787-B9DA-EA2003E9127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C39DE83B-1739-445D-8950-88F749A314C1}"/>
   </bookViews>
@@ -7320,25 +7320,25 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.88bd80541e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-05-14T09:01:38Z</t>
-  </si>
-  <si>
-    <t>f70496bf46c0e1477b8007b00a7f383b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.e2f658e4c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-14T09:21:00Z</t>
-  </si>
-  <si>
-    <t>f0b94415ce7f7ef97eb928b111f309c1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.de4bd43262^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il sistema rileva in fase di validazione l’assenza del codice che specifica il grado di parentela. L’errore è visibile all’utente, che deve completare l’anamnesi familiare con l’informazione mancante e procedere con un nuovo invio.</t>
+  </si>
+  <si>
+    <t>2025-05-15T08:22:17Z</t>
+  </si>
+  <si>
+    <t>86a0662ef21027a1d4325180b5714136</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.e7832d52e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-15T08:32:35Z</t>
+  </si>
+  <si>
+    <t>3b6902ecb430c3339afffda98d3b81bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.82a76523b4cdbf22bec6e25e8561d71e179f3e3f762a68ae716381f2293e70e5.b15b3a3611^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -9290,8 +9290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE1845C-3E9D-4496-B772-E13496BB4925}">
   <dimension ref="A1:AMJ755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" workbookViewId="0">
-      <selection activeCell="S129" sqref="S129"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -14383,7 +14383,7 @@
         <v>63</v>
       </c>
       <c r="S129" s="34" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="T129" s="27"/>
       <c r="U129" s="28"/>
@@ -15948,16 +15948,16 @@
         <v>374</v>
       </c>
       <c r="F169" s="32">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H169" s="33" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J169" s="27" t="s">
         <v>63</v>
@@ -15995,16 +15995,16 @@
         <v>376</v>
       </c>
       <c r="F170" s="32">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J170" s="27" t="s">
         <v>63</v>
